--- a/biology/Zoologie/Fecenia_macilenta/Fecenia_macilenta.xlsx
+++ b/biology/Zoologie/Fecenia_macilenta/Fecenia_macilenta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fecenia macilenta est une espèce d'araignées aranéomorphes de la famille des Psechridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fecenia macilenta est une espèce d'araignées aranéomorphes de la famille des Psechridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Malaisie péninsulaire et en Indonésie à Sumatra[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Malaisie péninsulaire et en Indonésie à Sumatra,.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 6,2 mm de long sur 3,8 mm et l'abdomen 7,5 mm de long sur 3,5 mm[3].
-La carapace des mâles mesurent de 5,4 à 5,8 mm de long sur de 3,5 à 4,1 mm de large, l'abdomen de 5,4 à 7,4 mm de long sur de 2,8 à 3,2 mm de large. La carapace de la femelle mesure 5,3 mm de long sur 3,7 mm de large, l'abdomen de 7,6 à 8,3 mm de long sur de 4,5 à 4,9 mm de large[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 6,2 mm de long sur 3,8 mm et l'abdomen 7,5 mm de long sur 3,5 mm.
+La carapace des mâles mesurent de 5,4 à 5,8 mm de long sur de 3,5 à 4,1 mm de large, l'abdomen de 5,4 à 7,4 mm de long sur de 2,8 à 3,2 mm de large. La carapace de la femelle mesure 5,3 mm de long sur 3,7 mm de large, l'abdomen de 7,6 à 8,3 mm de long sur de 4,5 à 4,9 mm de large.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Mezentia macilenta par Simon en 1886. Elle est placée dans le genre Fecenia par Simon en 1892[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Mezentia macilenta par Simon en 1886. Elle est placée dans le genre Fecenia par Simon en 1892.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1886 : « Matériaux pour servir à la faune arachnologiques de l'Asie méridionale. III. Arachnides recueillis en 1884 dans la presqu'île de Malacca, par M. J. Morgan. IV. Arachnides recueillis à Collegal, district de Coimbatoore, par M. A. Theobald G. R. » Bulletin de la Société zoologique de France, vol. 10, p. 436-462 (texte intégral).</t>
         </is>
